--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1209212.368816681</v>
+        <v>-1211597.189966811</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5927271.091497825</v>
+        <v>5927271.091497842</v>
       </c>
     </row>
     <row r="8">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>86.58949915481531</v>
+        <v>256.2777600822676</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>20.85019194502674</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>81.26627550272553</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>118.9913269637017</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>10.03156470826291</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>193.4254332592631</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>208.6432273947971</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>110.6860793789968</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>192.5627265154902</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>235.3563837592577</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>56.3145589888745</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>50.09791697323087</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.0158937510656</v>
+        <v>347.2797343081729</v>
       </c>
       <c r="H11" t="n">
         <v>305.8134134169904</v>
       </c>
       <c r="I11" t="n">
-        <v>83.75984535611664</v>
+        <v>83.75984535611663</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>208.7076909869171</v>
       </c>
       <c r="U11" t="n">
-        <v>186.3465459638178</v>
+        <v>251.0827054067109</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>95.25091164536762</v>
       </c>
       <c r="I12" t="n">
-        <v>28.84777688394853</v>
+        <v>28.84777688394852</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>70.11276386810908</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>149.1187276908262</v>
       </c>
       <c r="I13" t="n">
-        <v>108.962654659415</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>111.0005814968323</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.17558728915</v>
       </c>
       <c r="H14" t="n">
-        <v>297.2076248638983</v>
+        <v>297.2076248638982</v>
       </c>
       <c r="I14" t="n">
-        <v>51.36393048311928</v>
+        <v>51.36393048311891</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>114.9726338116122</v>
+        <v>114.972633811612</v>
       </c>
       <c r="T14" t="n">
         <v>205.029249449882</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,10 +1701,10 @@
         <v>135.1352971154112</v>
       </c>
       <c r="H15" t="n">
-        <v>90.90868745906516</v>
+        <v>90.90868745906511</v>
       </c>
       <c r="I15" t="n">
-        <v>13.36800401270678</v>
+        <v>13.36800401270659</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>130.6664522335283</v>
+        <v>130.6664522335282</v>
       </c>
       <c r="T15" t="n">
         <v>191.2640522740862</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.1396818493028</v>
       </c>
       <c r="H16" t="n">
-        <v>145.7674546533073</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>99.77690983373117</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>120.9895252505414</v>
       </c>
       <c r="U16" t="n">
-        <v>285.9815911693122</v>
+        <v>286.2180494923551</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,10 +1859,10 @@
         <v>411.17558728915</v>
       </c>
       <c r="H17" t="n">
-        <v>297.2076248638983</v>
+        <v>297.2076248638982</v>
       </c>
       <c r="I17" t="n">
-        <v>51.36393048311936</v>
+        <v>51.36393048311891</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>114.9726338116122</v>
+        <v>114.972633811612</v>
       </c>
       <c r="T17" t="n">
-        <v>205.0292494498821</v>
+        <v>205.029249449882</v>
       </c>
       <c r="U17" t="n">
         <v>251.0154808897577</v>
@@ -1938,10 +1938,10 @@
         <v>135.1352971154112</v>
       </c>
       <c r="H18" t="n">
-        <v>90.90868745906518</v>
+        <v>90.90868745906511</v>
       </c>
       <c r="I18" t="n">
-        <v>13.36800401270681</v>
+        <v>13.36800401270659</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>130.6664522335284</v>
+        <v>130.6664522335282</v>
       </c>
       <c r="T18" t="n">
         <v>191.2640522740862</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>101.9067853595225</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>27.68149103276104</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.1396818493028</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>94.05232337457453</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>191.7535314455904</v>
+        <v>191.7535314455903</v>
       </c>
       <c r="T19" t="n">
         <v>220.0355000709787</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         <v>411.17558728915</v>
       </c>
       <c r="H20" t="n">
-        <v>297.2076248638983</v>
+        <v>297.2076248638982</v>
       </c>
       <c r="I20" t="n">
-        <v>51.36393048311936</v>
+        <v>51.36393048311891</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>114.9726338116122</v>
+        <v>114.972633811612</v>
       </c>
       <c r="T20" t="n">
-        <v>205.0292494498821</v>
+        <v>205.029249449882</v>
       </c>
       <c r="U20" t="n">
         <v>251.0154808897577</v>
@@ -2175,10 +2175,10 @@
         <v>135.1352971154112</v>
       </c>
       <c r="H21" t="n">
-        <v>90.90868745906518</v>
+        <v>90.90868745906511</v>
       </c>
       <c r="I21" t="n">
-        <v>13.36800401270681</v>
+        <v>13.36800401270659</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>130.6664522335284</v>
+        <v>130.6664522335282</v>
       </c>
       <c r="T21" t="n">
         <v>191.2640522740862</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>100.9460220603129</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.7674546533074</v>
+        <v>145.7674546533073</v>
       </c>
       <c r="I22" t="n">
-        <v>99.77690983373134</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>94.05232337457429</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>191.7535314455903</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.0355000709787</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2180494923551</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.39062409037138</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,10 +2333,10 @@
         <v>411.17558728915</v>
       </c>
       <c r="H23" t="n">
-        <v>297.2076248638983</v>
+        <v>297.2076248638982</v>
       </c>
       <c r="I23" t="n">
-        <v>51.36393048311936</v>
+        <v>51.36393048311891</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>114.9726338116122</v>
+        <v>114.972633811612</v>
       </c>
       <c r="T23" t="n">
-        <v>205.0292494498821</v>
+        <v>205.029249449882</v>
       </c>
       <c r="U23" t="n">
         <v>251.0154808897577</v>
@@ -2412,10 +2412,10 @@
         <v>135.1352971154112</v>
       </c>
       <c r="H24" t="n">
-        <v>90.90868745906518</v>
+        <v>90.90868745906511</v>
       </c>
       <c r="I24" t="n">
-        <v>13.36800401270681</v>
+        <v>13.36800401270659</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>130.6664522335284</v>
+        <v>130.6664522335282</v>
       </c>
       <c r="T24" t="n">
         <v>191.2640522740862</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>52.3170763967596</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>11.53397439353604</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>99.77690983373117</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>94.05232337457429</v>
       </c>
       <c r="S25" t="n">
-        <v>191.7535314455904</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>220.0355000709787</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2180494923551</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>202.4425172951286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>13.42874471570741</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3199,7 +3199,7 @@
         <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404364</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
         <v>97.77987829572822</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514552</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3323,7 +3323,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3442,7 +3442,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797667</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433874</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572828</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124551</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3904,16 +3904,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
         <v>49.37728379124554</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.242825807459</v>
+        <v>1580.39642715702</v>
       </c>
       <c r="C2" t="n">
-        <v>1405.242825807459</v>
+        <v>1211.433910216608</v>
       </c>
       <c r="D2" t="n">
-        <v>1046.977127200708</v>
+        <v>1211.433910216608</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2499.910803387921</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2499.910803387921</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2168.84791604435</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2168.84791604435</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1795.38215778327</v>
+        <v>1580.39642715702</v>
       </c>
       <c r="Y2" t="n">
-        <v>1405.242825807459</v>
+        <v>1580.39642715702</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,16 +4416,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.6275373157412</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>607.9357246471395</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>380.6275373157412</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>380.6275373157412</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>380.6275373157412</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>380.6275373157412</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.6275373157412</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>990.5839652830418</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830418</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036444</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2106.957710790048</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.957710790048</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W5" t="n">
-        <v>1754.189055519933</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.723297258854</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="Y5" t="n">
-        <v>990.5839652830418</v>
+        <v>1936.700801904495</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150932</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150932</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027575</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036444</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>616.324863621589</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W7" t="n">
-        <v>533.621179645333</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X7" t="n">
-        <v>533.621179645333</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.621179645333</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.14692331494</v>
+        <v>1919.063478780784</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1191.835263233622</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>806.0470106353781</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2185.752013551832</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W8" t="n">
-        <v>2185.752013551832</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="X8" t="n">
-        <v>1812.286255290752</v>
+        <v>2309.202810756596</v>
       </c>
       <c r="Y8" t="n">
-        <v>1422.14692331494</v>
+        <v>1919.063478780784</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>235.9284171545819</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>235.9284171545819</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.652577797168</v>
+        <v>2364.262517753842</v>
       </c>
       <c r="C11" t="n">
-        <v>2060.690060856757</v>
+        <v>1995.30000081343</v>
       </c>
       <c r="D11" t="n">
-        <v>1702.424362250006</v>
+        <v>1637.03430220668</v>
       </c>
       <c r="E11" t="n">
-        <v>1316.636109651762</v>
+        <v>1251.246049608436</v>
       </c>
       <c r="F11" t="n">
-        <v>905.6502048621542</v>
+        <v>840.2601448188282</v>
       </c>
       <c r="G11" t="n">
-        <v>489.4725344065324</v>
+        <v>489.4725344065323</v>
       </c>
       <c r="H11" t="n">
-        <v>180.5700966115925</v>
+        <v>180.5700966115924</v>
       </c>
       <c r="I11" t="n">
         <v>95.96419221147464</v>
@@ -5045,7 +5045,7 @@
         <v>877.244353952035</v>
       </c>
       <c r="L11" t="n">
-        <v>1570.821916862106</v>
+        <v>1570.821916862107</v>
       </c>
       <c r="M11" t="n">
         <v>2359.167139161802</v>
@@ -5072,19 +5072,19 @@
         <v>4451.917885018754</v>
       </c>
       <c r="U11" t="n">
-        <v>4263.689050711867</v>
+        <v>4198.298990668541</v>
       </c>
       <c r="V11" t="n">
-        <v>3932.626163368296</v>
+        <v>3867.23610332497</v>
       </c>
       <c r="W11" t="n">
-        <v>3579.857508098182</v>
+        <v>3514.467448054856</v>
       </c>
       <c r="X11" t="n">
-        <v>3206.391749837102</v>
+        <v>3141.001689793776</v>
       </c>
       <c r="Y11" t="n">
-        <v>2816.25241786129</v>
+        <v>2750.862357817964</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5124,19 @@
         <v>279.559310243919</v>
       </c>
       <c r="L12" t="n">
-        <v>887.5474356693047</v>
+        <v>520.4154938188801</v>
       </c>
       <c r="M12" t="n">
-        <v>1187.972109621301</v>
+        <v>1270.31852455693</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.675626344293</v>
+        <v>2067.652141202784</v>
       </c>
       <c r="O12" t="n">
-        <v>2132.740739474291</v>
+        <v>2340.717254332782</v>
       </c>
       <c r="P12" t="n">
-        <v>2332.56650036346</v>
+        <v>2540.543015221951</v>
       </c>
       <c r="Q12" t="n">
         <v>2624.202048053398</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.7052795519609</v>
+        <v>713.5550855995914</v>
       </c>
       <c r="C13" t="n">
-        <v>506.769096624054</v>
+        <v>544.6189026716845</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6524572117182</v>
+        <v>394.5022632593488</v>
       </c>
       <c r="E13" t="n">
-        <v>356.6524572117182</v>
+        <v>246.5891696769556</v>
       </c>
       <c r="F13" t="n">
-        <v>356.6524572117182</v>
+        <v>246.5891696769556</v>
       </c>
       <c r="G13" t="n">
-        <v>356.6524572117182</v>
+        <v>246.5891696769556</v>
       </c>
       <c r="H13" t="n">
-        <v>206.0274797462372</v>
+        <v>95.96419221147464</v>
       </c>
       <c r="I13" t="n">
         <v>95.96419221147464</v>
@@ -5200,49 +5200,49 @@
         <v>106.7338304659219</v>
       </c>
       <c r="K13" t="n">
-        <v>254.2684911337128</v>
+        <v>254.2684911337129</v>
       </c>
       <c r="L13" t="n">
-        <v>498.5884969855837</v>
+        <v>498.5884969855838</v>
       </c>
       <c r="M13" t="n">
-        <v>766.5788100583129</v>
+        <v>766.5788100583131</v>
       </c>
       <c r="N13" t="n">
         <v>1033.631528895828</v>
       </c>
       <c r="O13" t="n">
-        <v>1264.281642962851</v>
+        <v>1264.281642962852</v>
       </c>
       <c r="P13" t="n">
         <v>1438.121979356796</v>
       </c>
       <c r="Q13" t="n">
-        <v>1475.044937267442</v>
+        <v>1475.044937267443</v>
       </c>
       <c r="R13" t="n">
-        <v>1475.044937267442</v>
+        <v>1362.923137775693</v>
       </c>
       <c r="S13" t="n">
-        <v>1475.044937267442</v>
+        <v>1362.923137775693</v>
       </c>
       <c r="T13" t="n">
-        <v>1475.044937267442</v>
+        <v>1362.923137775693</v>
       </c>
       <c r="U13" t="n">
-        <v>1185.915028732452</v>
+        <v>1073.793229240703</v>
       </c>
       <c r="V13" t="n">
-        <v>1185.915028732452</v>
+        <v>1073.793229240703</v>
       </c>
       <c r="W13" t="n">
-        <v>896.497858695491</v>
+        <v>784.376059203742</v>
       </c>
       <c r="X13" t="n">
-        <v>896.497858695491</v>
+        <v>784.376059203742</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.7052795519609</v>
+        <v>784.376059203742</v>
       </c>
     </row>
     <row r="14">
@@ -5255,58 +5255,58 @@
         <v>2387.387921344638</v>
       </c>
       <c r="C14" t="n">
-        <v>2018.425404404227</v>
+        <v>2018.425404404226</v>
       </c>
       <c r="D14" t="n">
-        <v>1660.159705797476</v>
+        <v>1660.159705797475</v>
       </c>
       <c r="E14" t="n">
-        <v>1274.371453199232</v>
+        <v>1274.371453199231</v>
       </c>
       <c r="F14" t="n">
-        <v>863.3855484096248</v>
+        <v>863.3855484096233</v>
       </c>
       <c r="G14" t="n">
-        <v>448.0566723599773</v>
+        <v>448.0566723599768</v>
       </c>
       <c r="H14" t="n">
-        <v>147.8469502752315</v>
+        <v>147.8469502752311</v>
       </c>
       <c r="I14" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147464</v>
       </c>
       <c r="J14" t="n">
-        <v>263.5125960578225</v>
+        <v>263.5125960578233</v>
       </c>
       <c r="K14" t="n">
-        <v>578.3343883607963</v>
+        <v>643.3936440350369</v>
       </c>
       <c r="L14" t="n">
-        <v>1403.192546639711</v>
+        <v>1468.251802313953</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.612726349918</v>
+        <v>2402.671982024162</v>
       </c>
       <c r="N14" t="n">
-        <v>3272.520803928245</v>
+        <v>3337.580059602491</v>
       </c>
       <c r="O14" t="n">
-        <v>4110.140352882939</v>
+        <v>4175.199608557186</v>
       </c>
       <c r="P14" t="n">
-        <v>4468.774154905303</v>
+        <v>4533.833410579552</v>
       </c>
       <c r="Q14" t="n">
-        <v>4689.920457956271</v>
+        <v>4754.979713630522</v>
       </c>
       <c r="R14" t="n">
-        <v>4798.209610573733</v>
+        <v>4798.209610573732</v>
       </c>
       <c r="S14" t="n">
-        <v>4682.07563702665</v>
+        <v>4682.075637026649</v>
       </c>
       <c r="T14" t="n">
-        <v>4474.975385057072</v>
+        <v>4474.975385057071</v>
       </c>
       <c r="U14" t="n">
         <v>4221.424394259337</v>
@@ -5318,7 +5318,7 @@
         <v>3537.592851645652</v>
       </c>
       <c r="X14" t="n">
-        <v>3164.127093384572</v>
+        <v>3164.127093384571</v>
       </c>
       <c r="Y14" t="n">
         <v>2773.98776140876</v>
@@ -5331,64 +5331,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>966.9539356346287</v>
+        <v>966.9539356346285</v>
       </c>
       <c r="C15" t="n">
-        <v>792.5009063535017</v>
+        <v>792.5009063535015</v>
       </c>
       <c r="D15" t="n">
-        <v>643.5664966922504</v>
+        <v>643.5664966922502</v>
       </c>
       <c r="E15" t="n">
-        <v>484.3290416867949</v>
+        <v>484.3290416867947</v>
       </c>
       <c r="F15" t="n">
-        <v>337.7944837136798</v>
+        <v>337.7944837136796</v>
       </c>
       <c r="G15" t="n">
-        <v>201.2941835971029</v>
+        <v>201.2941835971026</v>
       </c>
       <c r="H15" t="n">
-        <v>109.4672265677441</v>
+        <v>109.4672265677439</v>
       </c>
       <c r="I15" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147464</v>
       </c>
       <c r="J15" t="n">
-        <v>301.7671517508958</v>
+        <v>176.9370267638916</v>
       </c>
       <c r="K15" t="n">
-        <v>518.3174478892329</v>
+        <v>393.4873229022294</v>
       </c>
       <c r="L15" t="n">
-        <v>855.8185861687691</v>
+        <v>730.9884611817669</v>
       </c>
       <c r="M15" t="n">
-        <v>1269.023363812984</v>
+        <v>1350.614085437337</v>
       </c>
       <c r="N15" t="n">
-        <v>1789.163808932359</v>
+        <v>1789.163808932354</v>
       </c>
       <c r="O15" t="n">
-        <v>2168.131333088699</v>
+        <v>2168.131333088696</v>
       </c>
       <c r="P15" t="n">
-        <v>2452.953115347988</v>
+        <v>2452.953115347986</v>
       </c>
       <c r="Q15" t="n">
-        <v>2593.429737548629</v>
+        <v>2593.429737548628</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.429737548629</v>
+        <v>2593.429737548628</v>
       </c>
       <c r="S15" t="n">
-        <v>2461.443422161226</v>
+        <v>2461.443422161225</v>
       </c>
       <c r="T15" t="n">
         <v>2268.247409763159</v>
       </c>
       <c r="U15" t="n">
-        <v>2040.170536585128</v>
+        <v>2040.170536585127</v>
       </c>
       <c r="V15" t="n">
         <v>1805.018428353385</v>
@@ -5397,10 +5397,10 @@
         <v>1550.781071625183</v>
       </c>
       <c r="X15" t="n">
-        <v>1342.929571419651</v>
+        <v>1342.92957141965</v>
       </c>
       <c r="Y15" t="n">
-        <v>1135.169272654697</v>
+        <v>1135.169272654696</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>857.0599088171797</v>
+        <v>661.5733969833713</v>
       </c>
       <c r="C16" t="n">
-        <v>688.1237258892728</v>
+        <v>661.5733969833713</v>
       </c>
       <c r="D16" t="n">
-        <v>538.007086476937</v>
+        <v>511.4567575710355</v>
       </c>
       <c r="E16" t="n">
-        <v>390.0939928945439</v>
+        <v>511.4567575710355</v>
       </c>
       <c r="F16" t="n">
-        <v>243.2040453966336</v>
+        <v>364.5668100731251</v>
       </c>
       <c r="G16" t="n">
-        <v>243.2040453966336</v>
+        <v>196.7489496192839</v>
       </c>
       <c r="H16" t="n">
-        <v>95.96419221147465</v>
+        <v>196.7489496192839</v>
       </c>
       <c r="I16" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147464</v>
       </c>
       <c r="J16" t="n">
-        <v>133.1164704543228</v>
+        <v>133.116470454323</v>
       </c>
       <c r="K16" t="n">
-        <v>324.0059130498189</v>
+        <v>324.0059130498197</v>
       </c>
       <c r="L16" t="n">
-        <v>623.8051132401631</v>
+        <v>623.8051132401647</v>
       </c>
       <c r="M16" t="n">
-        <v>950.2904579857735</v>
+        <v>950.2904579857759</v>
       </c>
       <c r="N16" t="n">
-        <v>1274.447327385813</v>
+        <v>1274.447327385816</v>
       </c>
       <c r="O16" t="n">
-        <v>1557.842367071926</v>
+        <v>1557.84236707193</v>
       </c>
       <c r="P16" t="n">
-        <v>1776.81509930047</v>
+        <v>1776.815099300474</v>
       </c>
       <c r="Q16" t="n">
-        <v>1844.985388692814</v>
+        <v>1844.985388692819</v>
       </c>
       <c r="R16" t="n">
-        <v>1844.985388692814</v>
+        <v>1844.985388692819</v>
       </c>
       <c r="S16" t="n">
-        <v>1844.985388692814</v>
+        <v>1844.985388692819</v>
       </c>
       <c r="T16" t="n">
-        <v>1844.985388692814</v>
+        <v>1722.773747025605</v>
       </c>
       <c r="U16" t="n">
-        <v>1556.115094582397</v>
+        <v>1433.664606124236</v>
       </c>
       <c r="V16" t="n">
-        <v>1556.115094582397</v>
+        <v>1178.980117918349</v>
       </c>
       <c r="W16" t="n">
-        <v>1266.697924545437</v>
+        <v>889.5629478813886</v>
       </c>
       <c r="X16" t="n">
-        <v>1038.708373647419</v>
+        <v>661.5733969833713</v>
       </c>
       <c r="Y16" t="n">
-        <v>1038.708373647419</v>
+        <v>661.5733969833713</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2387.387921344639</v>
+        <v>2387.387921344636</v>
       </c>
       <c r="C17" t="n">
-        <v>2018.425404404227</v>
+        <v>2018.425404404225</v>
       </c>
       <c r="D17" t="n">
-        <v>1660.159705797476</v>
+        <v>1660.159705797475</v>
       </c>
       <c r="E17" t="n">
-        <v>1274.371453199231</v>
+        <v>1274.37145319923</v>
       </c>
       <c r="F17" t="n">
-        <v>863.3855484096239</v>
+        <v>863.3855484096234</v>
       </c>
       <c r="G17" t="n">
-        <v>448.0566723599774</v>
+        <v>448.0566723599768</v>
       </c>
       <c r="H17" t="n">
-        <v>147.8469502752316</v>
+        <v>147.8469502752318</v>
       </c>
       <c r="I17" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147464</v>
       </c>
       <c r="J17" t="n">
-        <v>430.9182450781753</v>
+        <v>430.9182450781764</v>
       </c>
       <c r="K17" t="n">
-        <v>1053.67234669215</v>
+        <v>973.124082754814</v>
       </c>
       <c r="L17" t="n">
-        <v>1752.411838122408</v>
+        <v>1384.497638628784</v>
       </c>
       <c r="M17" t="n">
-        <v>2241.81361967471</v>
+        <v>1873.899420181089</v>
       </c>
       <c r="N17" t="n">
-        <v>2743.748242085172</v>
+        <v>2808.807497759418</v>
       </c>
       <c r="O17" t="n">
-        <v>3581.367791039866</v>
+        <v>3646.427046714113</v>
       </c>
       <c r="P17" t="n">
-        <v>4258.582314151997</v>
+        <v>4323.641569826246</v>
       </c>
       <c r="Q17" t="n">
-        <v>4689.920457956271</v>
+        <v>4754.979713630522</v>
       </c>
       <c r="R17" t="n">
-        <v>4798.209610573733</v>
+        <v>4798.209610573732</v>
       </c>
       <c r="S17" t="n">
-        <v>4682.07563702665</v>
+        <v>4682.075637026648</v>
       </c>
       <c r="T17" t="n">
-        <v>4474.975385057072</v>
+        <v>4474.975385057071</v>
       </c>
       <c r="U17" t="n">
-        <v>4221.424394259338</v>
+        <v>4221.424394259335</v>
       </c>
       <c r="V17" t="n">
-        <v>3890.361506915767</v>
+        <v>3890.361506915764</v>
       </c>
       <c r="W17" t="n">
-        <v>3537.592851645652</v>
+        <v>3537.59285164565</v>
       </c>
       <c r="X17" t="n">
-        <v>3164.127093384573</v>
+        <v>3164.12709338457</v>
       </c>
       <c r="Y17" t="n">
-        <v>2773.987761408761</v>
+        <v>2773.987761408758</v>
       </c>
     </row>
     <row r="18">
@@ -5568,64 +5568,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>966.9539356346287</v>
+        <v>966.9539356346285</v>
       </c>
       <c r="C18" t="n">
-        <v>792.5009063535017</v>
+        <v>792.5009063535015</v>
       </c>
       <c r="D18" t="n">
-        <v>643.5664966922504</v>
+        <v>643.5664966922502</v>
       </c>
       <c r="E18" t="n">
-        <v>484.329041686795</v>
+        <v>484.3290416867947</v>
       </c>
       <c r="F18" t="n">
-        <v>337.7944837136799</v>
+        <v>337.7944837136796</v>
       </c>
       <c r="G18" t="n">
-        <v>201.2941835971029</v>
+        <v>201.2941835971026</v>
       </c>
       <c r="H18" t="n">
-        <v>109.4672265677441</v>
+        <v>109.4672265677439</v>
       </c>
       <c r="I18" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147464</v>
       </c>
       <c r="J18" t="n">
-        <v>301.7671517508958</v>
+        <v>176.9370267638916</v>
       </c>
       <c r="K18" t="n">
-        <v>518.3174478892327</v>
+        <v>393.4873229022294</v>
       </c>
       <c r="L18" t="n">
-        <v>855.8185861687687</v>
+        <v>730.9884611817669</v>
       </c>
       <c r="M18" t="n">
-        <v>1269.023363812984</v>
+        <v>1144.193238825984</v>
       </c>
       <c r="N18" t="n">
-        <v>1707.573087307999</v>
+        <v>1582.742962321001</v>
       </c>
       <c r="O18" t="n">
-        <v>2086.540611464339</v>
+        <v>1961.710486477343</v>
       </c>
       <c r="P18" t="n">
-        <v>2371.362393723628</v>
+        <v>2246.532268736632</v>
       </c>
       <c r="Q18" t="n">
-        <v>2593.429737548629</v>
+        <v>2593.429737548628</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.429737548629</v>
+        <v>2593.429737548628</v>
       </c>
       <c r="S18" t="n">
-        <v>2461.443422161226</v>
+        <v>2461.443422161225</v>
       </c>
       <c r="T18" t="n">
         <v>2268.247409763159</v>
       </c>
       <c r="U18" t="n">
-        <v>2040.170536585128</v>
+        <v>2040.170536585127</v>
       </c>
       <c r="V18" t="n">
         <v>1805.018428353385</v>
@@ -5634,10 +5634,10 @@
         <v>1550.781071625183</v>
       </c>
       <c r="X18" t="n">
-        <v>1342.929571419651</v>
+        <v>1342.92957141965</v>
       </c>
       <c r="Y18" t="n">
-        <v>1135.169272654697</v>
+        <v>1135.169272654696</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>608.5924312289098</v>
+        <v>367.8365219671821</v>
       </c>
       <c r="C19" t="n">
-        <v>439.656248301003</v>
+        <v>198.9003390392752</v>
       </c>
       <c r="D19" t="n">
-        <v>439.656248301003</v>
+        <v>95.96419221147464</v>
       </c>
       <c r="E19" t="n">
-        <v>291.7431547186098</v>
+        <v>95.96419221147464</v>
       </c>
       <c r="F19" t="n">
-        <v>263.7820526653159</v>
+        <v>95.96419221147464</v>
       </c>
       <c r="G19" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147464</v>
       </c>
       <c r="H19" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147464</v>
       </c>
       <c r="I19" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147464</v>
       </c>
       <c r="J19" t="n">
-        <v>133.1164704543227</v>
+        <v>133.116470454323</v>
       </c>
       <c r="K19" t="n">
-        <v>324.0059130498188</v>
+        <v>324.0059130498197</v>
       </c>
       <c r="L19" t="n">
-        <v>623.8051132401629</v>
+        <v>623.8051132401647</v>
       </c>
       <c r="M19" t="n">
-        <v>950.2904579857732</v>
+        <v>950.2904579857759</v>
       </c>
       <c r="N19" t="n">
-        <v>1274.447327385812</v>
+        <v>1274.447327385816</v>
       </c>
       <c r="O19" t="n">
-        <v>1557.842367071925</v>
+        <v>1557.84236707193</v>
       </c>
       <c r="P19" t="n">
-        <v>1776.815099300469</v>
+        <v>1776.815099300474</v>
       </c>
       <c r="Q19" t="n">
-        <v>1844.985388692813</v>
+        <v>1844.985388692819</v>
       </c>
       <c r="R19" t="n">
-        <v>1749.983041849809</v>
+        <v>1844.985388692819</v>
       </c>
       <c r="S19" t="n">
-        <v>1556.292606046182</v>
+        <v>1651.294952889192</v>
       </c>
       <c r="T19" t="n">
-        <v>1334.034525166405</v>
+        <v>1429.036872009416</v>
       </c>
       <c r="U19" t="n">
-        <v>1044.925384265036</v>
+        <v>1139.927731108047</v>
       </c>
       <c r="V19" t="n">
-        <v>790.2408960591496</v>
+        <v>885.24324290216</v>
       </c>
       <c r="W19" t="n">
-        <v>790.2408960591496</v>
+        <v>595.8260728651994</v>
       </c>
       <c r="X19" t="n">
-        <v>790.2408960591496</v>
+        <v>367.8365219671821</v>
       </c>
       <c r="Y19" t="n">
-        <v>790.2408960591496</v>
+        <v>367.8365219671821</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2387.387921344638</v>
+        <v>2387.387921344636</v>
       </c>
       <c r="C20" t="n">
-        <v>2018.425404404227</v>
+        <v>2018.425404404225</v>
       </c>
       <c r="D20" t="n">
-        <v>1660.159705797476</v>
+        <v>1660.159705797475</v>
       </c>
       <c r="E20" t="n">
-        <v>1274.371453199232</v>
+        <v>1274.37145319923</v>
       </c>
       <c r="F20" t="n">
-        <v>863.3855484096243</v>
+        <v>863.3855484096234</v>
       </c>
       <c r="G20" t="n">
-        <v>448.0566723599777</v>
+        <v>448.0566723599768</v>
       </c>
       <c r="H20" t="n">
-        <v>147.8469502752323</v>
+        <v>147.8469502752318</v>
       </c>
       <c r="I20" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147464</v>
       </c>
       <c r="J20" t="n">
-        <v>263.5125960578223</v>
+        <v>263.5125960578233</v>
       </c>
       <c r="K20" t="n">
-        <v>565.362739226344</v>
+        <v>643.3936440350369</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.220897505259</v>
+        <v>1468.251802313953</v>
       </c>
       <c r="M20" t="n">
-        <v>2324.641077215465</v>
+        <v>2402.671982024162</v>
       </c>
       <c r="N20" t="n">
-        <v>3259.549154793792</v>
+        <v>3337.580059602491</v>
       </c>
       <c r="O20" t="n">
-        <v>4097.168703748484</v>
+        <v>4175.199608557186</v>
       </c>
       <c r="P20" t="n">
-        <v>4455.802505770848</v>
+        <v>4533.833410579552</v>
       </c>
       <c r="Q20" t="n">
-        <v>4689.920457956271</v>
+        <v>4754.979713630522</v>
       </c>
       <c r="R20" t="n">
-        <v>4798.209610573733</v>
+        <v>4798.209610573732</v>
       </c>
       <c r="S20" t="n">
-        <v>4682.075637026649</v>
+        <v>4682.075637026648</v>
       </c>
       <c r="T20" t="n">
         <v>4474.975385057071</v>
       </c>
       <c r="U20" t="n">
-        <v>4221.424394259337</v>
+        <v>4221.424394259335</v>
       </c>
       <c r="V20" t="n">
-        <v>3890.361506915766</v>
+        <v>3890.361506915764</v>
       </c>
       <c r="W20" t="n">
-        <v>3537.592851645652</v>
+        <v>3537.59285164565</v>
       </c>
       <c r="X20" t="n">
-        <v>3164.127093384572</v>
+        <v>3164.12709338457</v>
       </c>
       <c r="Y20" t="n">
-        <v>2773.98776140876</v>
+        <v>2773.987761408758</v>
       </c>
     </row>
     <row r="21">
@@ -5805,64 +5805,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>966.9539356346287</v>
+        <v>966.9539356346285</v>
       </c>
       <c r="C21" t="n">
-        <v>792.5009063535017</v>
+        <v>792.5009063535015</v>
       </c>
       <c r="D21" t="n">
-        <v>643.5664966922504</v>
+        <v>643.5664966922502</v>
       </c>
       <c r="E21" t="n">
-        <v>484.329041686795</v>
+        <v>484.3290416867947</v>
       </c>
       <c r="F21" t="n">
-        <v>337.7944837136799</v>
+        <v>337.7944837136796</v>
       </c>
       <c r="G21" t="n">
-        <v>201.2941835971029</v>
+        <v>201.2941835971026</v>
       </c>
       <c r="H21" t="n">
-        <v>109.4672265677441</v>
+        <v>109.4672265677439</v>
       </c>
       <c r="I21" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147464</v>
       </c>
       <c r="J21" t="n">
-        <v>301.7671517508958</v>
+        <v>176.9370267638916</v>
       </c>
       <c r="K21" t="n">
-        <v>518.3174478892327</v>
+        <v>599.9081695135828</v>
       </c>
       <c r="L21" t="n">
-        <v>855.8185861687687</v>
+        <v>937.4093077931202</v>
       </c>
       <c r="M21" t="n">
-        <v>1269.023363812984</v>
+        <v>1350.614085437337</v>
       </c>
       <c r="N21" t="n">
-        <v>1707.573087307999</v>
+        <v>1789.163808932354</v>
       </c>
       <c r="O21" t="n">
-        <v>2086.540611464339</v>
+        <v>2168.131333088696</v>
       </c>
       <c r="P21" t="n">
-        <v>2371.362393723628</v>
+        <v>2452.953115347986</v>
       </c>
       <c r="Q21" t="n">
-        <v>2593.429737548629</v>
+        <v>2593.429737548628</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.429737548629</v>
+        <v>2593.429737548628</v>
       </c>
       <c r="S21" t="n">
-        <v>2461.443422161226</v>
+        <v>2461.443422161225</v>
       </c>
       <c r="T21" t="n">
         <v>2268.247409763159</v>
       </c>
       <c r="U21" t="n">
-        <v>2040.170536585128</v>
+        <v>2040.170536585127</v>
       </c>
       <c r="V21" t="n">
         <v>1805.018428353385</v>
@@ -5871,10 +5871,10 @@
         <v>1550.781071625183</v>
       </c>
       <c r="X21" t="n">
-        <v>1342.929571419651</v>
+        <v>1342.92957141965</v>
       </c>
       <c r="Y21" t="n">
-        <v>1135.169272654697</v>
+        <v>1135.169272654696</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>957.8446662249892</v>
+        <v>642.1763111556807</v>
       </c>
       <c r="C22" t="n">
-        <v>788.9084832970823</v>
+        <v>540.2106323068797</v>
       </c>
       <c r="D22" t="n">
-        <v>638.7918438847465</v>
+        <v>390.0939928945439</v>
       </c>
       <c r="E22" t="n">
-        <v>490.8787503023534</v>
+        <v>390.0939928945439</v>
       </c>
       <c r="F22" t="n">
-        <v>343.988802804443</v>
+        <v>243.2040453966335</v>
       </c>
       <c r="G22" t="n">
-        <v>343.988802804443</v>
+        <v>243.2040453966335</v>
       </c>
       <c r="H22" t="n">
-        <v>196.7489496192841</v>
+        <v>95.96419221147464</v>
       </c>
       <c r="I22" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147464</v>
       </c>
       <c r="J22" t="n">
-        <v>133.1164704543227</v>
+        <v>133.116470454323</v>
       </c>
       <c r="K22" t="n">
-        <v>324.0059130498188</v>
+        <v>324.0059130498197</v>
       </c>
       <c r="L22" t="n">
-        <v>623.8051132401629</v>
+        <v>623.8051132401647</v>
       </c>
       <c r="M22" t="n">
-        <v>950.2904579857732</v>
+        <v>950.2904579857759</v>
       </c>
       <c r="N22" t="n">
-        <v>1274.447327385812</v>
+        <v>1274.447327385816</v>
       </c>
       <c r="O22" t="n">
-        <v>1557.842367071925</v>
+        <v>1557.84236707193</v>
       </c>
       <c r="P22" t="n">
-        <v>1776.815099300469</v>
+        <v>1776.815099300474</v>
       </c>
       <c r="Q22" t="n">
-        <v>1844.985388692813</v>
+        <v>1844.985388692819</v>
       </c>
       <c r="R22" t="n">
-        <v>1844.985388692813</v>
+        <v>1749.983041849814</v>
       </c>
       <c r="S22" t="n">
-        <v>1844.985388692813</v>
+        <v>1556.292606046188</v>
       </c>
       <c r="T22" t="n">
-        <v>1844.985388692813</v>
+        <v>1334.034525166411</v>
       </c>
       <c r="U22" t="n">
-        <v>1555.876247791444</v>
+        <v>1334.034525166411</v>
       </c>
       <c r="V22" t="n">
-        <v>1301.191759585557</v>
+        <v>1334.034525166411</v>
       </c>
       <c r="W22" t="n">
-        <v>1011.774589548597</v>
+        <v>1044.617355129451</v>
       </c>
       <c r="X22" t="n">
-        <v>1011.774589548597</v>
+        <v>1044.617355129451</v>
       </c>
       <c r="Y22" t="n">
-        <v>957.8446662249892</v>
+        <v>823.8247759859204</v>
       </c>
     </row>
     <row r="23">
@@ -5969,67 +5969,67 @@
         <v>2018.425404404226</v>
       </c>
       <c r="D23" t="n">
-        <v>1660.159705797476</v>
+        <v>1660.159705797475</v>
       </c>
       <c r="E23" t="n">
         <v>1274.371453199231</v>
       </c>
       <c r="F23" t="n">
-        <v>863.3855484096239</v>
+        <v>863.3855484096233</v>
       </c>
       <c r="G23" t="n">
-        <v>448.0566723599774</v>
+        <v>448.0566723599768</v>
       </c>
       <c r="H23" t="n">
-        <v>147.8469502752316</v>
+        <v>147.8469502752311</v>
       </c>
       <c r="I23" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147464</v>
       </c>
       <c r="J23" t="n">
-        <v>388.5537419146865</v>
+        <v>263.5125960578233</v>
       </c>
       <c r="K23" t="n">
-        <v>1011.307843528661</v>
+        <v>886.2666976717996</v>
       </c>
       <c r="L23" t="n">
-        <v>1836.166001807576</v>
+        <v>1711.124855950716</v>
       </c>
       <c r="M23" t="n">
-        <v>2770.586181517783</v>
+        <v>2645.545035660925</v>
       </c>
       <c r="N23" t="n">
-        <v>3272.520803928245</v>
+        <v>3580.453113239254</v>
       </c>
       <c r="O23" t="n">
-        <v>4110.140352882938</v>
+        <v>4175.199608557185</v>
       </c>
       <c r="P23" t="n">
-        <v>4468.774154905302</v>
+        <v>4533.833410579551</v>
       </c>
       <c r="Q23" t="n">
-        <v>4689.92045795627</v>
+        <v>4754.979713630521</v>
       </c>
       <c r="R23" t="n">
-        <v>4798.209610573732</v>
+        <v>4798.209610573731</v>
       </c>
       <c r="S23" t="n">
-        <v>4682.075637026649</v>
+        <v>4682.075637026648</v>
       </c>
       <c r="T23" t="n">
         <v>4474.975385057071</v>
       </c>
       <c r="U23" t="n">
-        <v>4221.424394259337</v>
+        <v>4221.424394259336</v>
       </c>
       <c r="V23" t="n">
-        <v>3890.361506915766</v>
+        <v>3890.361506915765</v>
       </c>
       <c r="W23" t="n">
-        <v>3537.592851645652</v>
+        <v>3537.592851645651</v>
       </c>
       <c r="X23" t="n">
-        <v>3164.127093384572</v>
+        <v>3164.127093384571</v>
       </c>
       <c r="Y23" t="n">
         <v>2773.98776140876</v>
@@ -6042,64 +6042,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>966.9539356346287</v>
+        <v>966.9539356346285</v>
       </c>
       <c r="C24" t="n">
-        <v>792.5009063535017</v>
+        <v>792.5009063535015</v>
       </c>
       <c r="D24" t="n">
-        <v>643.5664966922504</v>
+        <v>643.5664966922502</v>
       </c>
       <c r="E24" t="n">
-        <v>484.329041686795</v>
+        <v>484.3290416867947</v>
       </c>
       <c r="F24" t="n">
-        <v>337.7944837136799</v>
+        <v>337.7944837136796</v>
       </c>
       <c r="G24" t="n">
-        <v>201.2941835971029</v>
+        <v>201.2941835971026</v>
       </c>
       <c r="H24" t="n">
-        <v>109.4672265677441</v>
+        <v>109.4672265677439</v>
       </c>
       <c r="I24" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147464</v>
       </c>
       <c r="J24" t="n">
-        <v>301.7671517508958</v>
+        <v>176.9370267638916</v>
       </c>
       <c r="K24" t="n">
-        <v>518.3174478892327</v>
+        <v>599.9081695135828</v>
       </c>
       <c r="L24" t="n">
-        <v>855.8185861687687</v>
+        <v>937.4093077931202</v>
       </c>
       <c r="M24" t="n">
-        <v>1269.023363812984</v>
+        <v>1350.614085437337</v>
       </c>
       <c r="N24" t="n">
-        <v>1707.573087307999</v>
+        <v>1789.163808932354</v>
       </c>
       <c r="O24" t="n">
-        <v>2086.540611464339</v>
+        <v>2168.131333088696</v>
       </c>
       <c r="P24" t="n">
-        <v>2371.362393723628</v>
+        <v>2452.953115347986</v>
       </c>
       <c r="Q24" t="n">
-        <v>2593.429737548629</v>
+        <v>2593.429737548628</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.429737548629</v>
+        <v>2593.429737548628</v>
       </c>
       <c r="S24" t="n">
-        <v>2461.443422161226</v>
+        <v>2461.443422161225</v>
       </c>
       <c r="T24" t="n">
         <v>2268.247409763159</v>
       </c>
       <c r="U24" t="n">
-        <v>2040.170536585128</v>
+        <v>2040.170536585127</v>
       </c>
       <c r="V24" t="n">
         <v>1805.018428353385</v>
@@ -6108,10 +6108,10 @@
         <v>1550.781071625183</v>
       </c>
       <c r="X24" t="n">
-        <v>1342.929571419651</v>
+        <v>1342.92957141965</v>
       </c>
       <c r="Y24" t="n">
-        <v>1135.169272654697</v>
+        <v>1135.169272654696</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>254.5046188947749</v>
+        <v>641.6686301119231</v>
       </c>
       <c r="C25" t="n">
-        <v>254.5046188947749</v>
+        <v>641.6686301119231</v>
       </c>
       <c r="D25" t="n">
-        <v>242.854139709385</v>
+        <v>491.5519906995873</v>
       </c>
       <c r="E25" t="n">
-        <v>242.854139709385</v>
+        <v>343.6388971171942</v>
       </c>
       <c r="F25" t="n">
-        <v>95.96419221147465</v>
+        <v>196.7489496192839</v>
       </c>
       <c r="G25" t="n">
-        <v>95.96419221147465</v>
+        <v>196.7489496192839</v>
       </c>
       <c r="H25" t="n">
-        <v>95.96419221147465</v>
+        <v>196.7489496192839</v>
       </c>
       <c r="I25" t="n">
-        <v>95.96419221147465</v>
+        <v>95.96419221147464</v>
       </c>
       <c r="J25" t="n">
-        <v>133.1164704543227</v>
+        <v>133.116470454323</v>
       </c>
       <c r="K25" t="n">
-        <v>324.0059130498188</v>
+        <v>324.0059130498197</v>
       </c>
       <c r="L25" t="n">
-        <v>623.8051132401629</v>
+        <v>623.8051132401647</v>
       </c>
       <c r="M25" t="n">
-        <v>950.2904579857732</v>
+        <v>950.2904579857759</v>
       </c>
       <c r="N25" t="n">
-        <v>1274.447327385812</v>
+        <v>1274.447327385816</v>
       </c>
       <c r="O25" t="n">
-        <v>1557.842367071925</v>
+        <v>1557.84236707193</v>
       </c>
       <c r="P25" t="n">
-        <v>1776.815099300469</v>
+        <v>1776.815099300474</v>
       </c>
       <c r="Q25" t="n">
-        <v>1844.985388692813</v>
+        <v>1844.985388692819</v>
       </c>
       <c r="R25" t="n">
-        <v>1844.985388692813</v>
+        <v>1749.983041849814</v>
       </c>
       <c r="S25" t="n">
-        <v>1651.294952889186</v>
+        <v>1749.983041849814</v>
       </c>
       <c r="T25" t="n">
-        <v>1429.03687200941</v>
+        <v>1527.724960970038</v>
       </c>
       <c r="U25" t="n">
-        <v>1429.03687200941</v>
+        <v>1238.615820068669</v>
       </c>
       <c r="V25" t="n">
-        <v>1174.352383803523</v>
+        <v>983.9313318627823</v>
       </c>
       <c r="W25" t="n">
-        <v>884.9352137665621</v>
+        <v>694.5141618258217</v>
       </c>
       <c r="X25" t="n">
-        <v>656.9456628685448</v>
+        <v>694.5141618258217</v>
       </c>
       <c r="Y25" t="n">
-        <v>436.1530837250147</v>
+        <v>694.5141618258217</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,28 +6224,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6427,7 +6427,7 @@
         <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6464,13 +6464,13 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2649.230460361821</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
         <v>3196.009277420604</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1751.093193329805</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>1751.093193329805</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1751.093193329805</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>1751.093193329805</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>1523.103642431788</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1302.311063288258</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6777,10 +6777,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320242</v>
@@ -6795,22 +6795,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215061</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416725</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774101</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430903</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932532</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G34" t="n">
         <v>244.2046325160447</v>
@@ -6883,7 +6883,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S34" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T34" t="n">
         <v>1967.452490122057</v>
@@ -6892,7 +6892,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V34" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W34" t="n">
         <v>1276.596863849073</v>
@@ -6901,7 +6901,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036725</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6920,7 +6920,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
         <v>850.213983755162</v>
@@ -6935,28 +6935,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6968,19 +6968,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
@@ -7020,7 +7020,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7032,22 +7032,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C37" t="n">
         <v>667.0286178416716</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G37" t="n">
         <v>244.2046325160447</v>
@@ -7096,7 +7096,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L37" t="n">
         <v>800.7468040499223</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7178,13 +7178,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
         <v>4075.973927750058</v>
@@ -7205,19 +7205,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477365</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499222</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7363,19 +7363,19 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036714</v>
+        <v>922.7139997036719</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L41" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750057</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107235</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7509,7 +7509,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7518,7 +7518,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
         <v>2043.809373447819</v>
@@ -7527,7 +7527,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282342</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F43" t="n">
         <v>364.4578361932524</v>
@@ -7564,7 +7564,7 @@
         <v>145.4370786819758</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>187.1890521477366</v>
@@ -7573,7 +7573,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7606,13 +7606,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7646,28 +7646,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932528</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7807,10 +7807,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,13 +7825,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,13 +8772,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>454.0185422081346</v>
       </c>
       <c r="N12" t="n">
-        <v>352.4432835123799</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>36.49101924097583</v>
+        <v>36.49101924097582</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>13.10267589338565</v>
+        <v>78.81909576635394</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,10 +9012,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>208.5059056680337</v>
       </c>
       <c r="N15" t="n">
-        <v>82.41487032763484</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.576157487434642</v>
+        <v>8.57615748743433</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,16 +9164,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>242.7835298061762</v>
       </c>
       <c r="L17" t="n">
-        <v>290.2686217740289</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.41487032763641</v>
+        <v>208.5059056680338</v>
       </c>
       <c r="R18" t="n">
-        <v>8.576157487434727</v>
+        <v>8.57615748743433</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>78.81909576635394</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>13.10267589338798</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>208.5059056680337</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.41487032763641</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.576157487434727</v>
+        <v>8.57615748743433</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>126.3041877342062</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9647,10 +9647,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>135.4738644579336</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>208.5059056680337</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.41487032763641</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.576157487434727</v>
+        <v>8.57615748743433</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,16 +10112,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M29" t="n">
-        <v>315.167921710932</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>295.4822118493983</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400226</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>226.7688596193112</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22553,10 +22553,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>295.3408709174465</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>288.4648251757435</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>64.7361594428927</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>64.73615944289313</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>109.7192163138282</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2.149644957662247</v>
+        <v>111.1122996170772</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>111.0005814968323</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>198.322437798273</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.1396818493028</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.767454653306</v>
       </c>
       <c r="I16" t="n">
-        <v>99.77690983373131</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>94.05232337457448</v>
+        <v>94.05232337457429</v>
       </c>
       <c r="S16" t="n">
-        <v>191.7535314455904</v>
+        <v>191.7535314455903</v>
       </c>
       <c r="T16" t="n">
-        <v>220.0355000709787</v>
+        <v>99.04597482043724</v>
       </c>
       <c r="U16" t="n">
-        <v>0.2364583230428821</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>46.70868765868984</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>117.7395569901702</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.1396818493028</v>
       </c>
       <c r="H19" t="n">
-        <v>145.7674546533074</v>
+        <v>145.7674546533073</v>
       </c>
       <c r="I19" t="n">
-        <v>99.77690983373134</v>
+        <v>99.77690983373117</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>94.05232337457429</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>66.30079903831489</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>99.77690983373117</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>94.05232337457453</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>191.7535314455904</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.0355000709787</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2180494923551</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.1940292617234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>127.5149037851777</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>137.0814986246763</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>166.1396818493028</v>
       </c>
       <c r="H25" t="n">
-        <v>145.7674546533074</v>
+        <v>145.7674546533073</v>
       </c>
       <c r="I25" t="n">
-        <v>99.77690983373134</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>94.05232337457453</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>191.7535314455903</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2180494923551</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>206.1202045604618</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.815970093361102e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1280465.134312354</v>
+        <v>1280465.134312353</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1248192.805658161</v>
+        <v>1248192.805658162</v>
       </c>
     </row>
     <row r="8">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159506.5273078509</v>
+        <v>159506.5273078508</v>
       </c>
       <c r="C2" t="n">
+        <v>164208.3539728566</v>
+      </c>
+      <c r="D2" t="n">
         <v>164208.3539728567</v>
-      </c>
-      <c r="D2" t="n">
-        <v>164208.3539728566</v>
       </c>
       <c r="E2" t="n">
         <v>155261.740242806</v>
       </c>
       <c r="F2" t="n">
+        <v>158243.3138053056</v>
+      </c>
+      <c r="G2" t="n">
         <v>158243.3138053057</v>
       </c>
-      <c r="G2" t="n">
-        <v>158243.3138053055</v>
-      </c>
       <c r="H2" t="n">
-        <v>158243.3138053055</v>
+        <v>158243.3138053056</v>
       </c>
       <c r="I2" t="n">
-        <v>158243.3138053056</v>
+        <v>158243.3138053057</v>
       </c>
       <c r="J2" t="n">
         <v>158832.7147547932</v>
@@ -26341,19 +26341,19 @@
         <v>158832.7147547932</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728564</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="N2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>510216.4288594116</v>
+        <v>510216.4288594117</v>
       </c>
       <c r="F3" t="n">
-        <v>165223.7402705886</v>
+        <v>165223.7402705904</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221821.0542122908</v>
+        <v>221821.0542122887</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="M3" t="n">
         <v>130898.1714288278</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169930.4475800588</v>
+        <v>169930.4475800584</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
         <v>36668.30966185972</v>
       </c>
       <c r="F4" t="n">
-        <v>22598.28697482976</v>
+        <v>22598.28697482956</v>
       </c>
       <c r="G4" t="n">
-        <v>22598.28697482973</v>
+        <v>22598.28697482957</v>
       </c>
       <c r="H4" t="n">
-        <v>22598.28697482979</v>
+        <v>22598.28697482956</v>
       </c>
       <c r="I4" t="n">
-        <v>22598.28697482978</v>
+        <v>22598.28697482956</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
@@ -26448,13 +26448,13 @@
         <v>33605.65329740899</v>
       </c>
       <c r="M4" t="n">
+        <v>33605.65329740899</v>
+      </c>
+      <c r="N4" t="n">
+        <v>33605.65329740898</v>
+      </c>
+      <c r="O4" t="n">
         <v>33605.65329740896</v>
-      </c>
-      <c r="N4" t="n">
-        <v>33605.65329740896</v>
-      </c>
-      <c r="O4" t="n">
-        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740899</v>
@@ -26473,22 +26473,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>90756.51810232858</v>
       </c>
       <c r="F5" t="n">
-        <v>95313.28996868088</v>
+        <v>95313.28996868091</v>
       </c>
       <c r="G5" t="n">
-        <v>95313.28996868087</v>
+        <v>95313.28996868091</v>
       </c>
       <c r="H5" t="n">
-        <v>95313.28996868087</v>
+        <v>95313.28996868091</v>
       </c>
       <c r="I5" t="n">
-        <v>95313.28996868087</v>
+        <v>95313.28996868091</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-683250.8775501618</v>
+        <v>-683309.6503834742</v>
       </c>
       <c r="C6" t="n">
         <v>-101999.4109476808</v>
@@ -26528,40 +26528,40 @@
         <v>-101999.4109476808</v>
       </c>
       <c r="E6" t="n">
-        <v>-482379.5163807939</v>
+        <v>-482491.3490524197</v>
       </c>
       <c r="F6" t="n">
-        <v>-124892.0034087936</v>
+        <v>-124966.5664108897</v>
       </c>
       <c r="G6" t="n">
-        <v>40331.73686179494</v>
+        <v>40257.17385970083</v>
       </c>
       <c r="H6" t="n">
-        <v>40331.73686179488</v>
+        <v>40257.17385970074</v>
       </c>
       <c r="I6" t="n">
-        <v>40331.73686179494</v>
+        <v>40257.1738597008</v>
       </c>
       <c r="J6" t="n">
-        <v>-177520.3500304012</v>
+        <v>-177587.5455206248</v>
       </c>
       <c r="K6" t="n">
-        <v>44300.70418188958</v>
+        <v>44233.50869166379</v>
       </c>
       <c r="L6" t="n">
-        <v>-7310.079633528338</v>
+        <v>-7310.079633528774</v>
       </c>
       <c r="M6" t="n">
-        <v>-100628.1417674821</v>
+        <v>-100628.1417674823</v>
       </c>
       <c r="N6" t="n">
-        <v>30270.02966134573</v>
+        <v>30270.02966134566</v>
       </c>
       <c r="O6" t="n">
-        <v>30270.02966134569</v>
+        <v>30270.02966134556</v>
       </c>
       <c r="P6" t="n">
-        <v>30270.02966134566</v>
+        <v>30270.02966134563</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
         <v>46.97513661859256</v>
@@ -26741,22 +26741,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>817.6023863122871</v>
+        <v>817.6023863122872</v>
       </c>
       <c r="F3" t="n">
-        <v>1026.628618713768</v>
+        <v>1026.62861871377</v>
       </c>
       <c r="G3" t="n">
-        <v>1026.628618713768</v>
+        <v>1026.62861871377</v>
       </c>
       <c r="H3" t="n">
-        <v>1026.628618713768</v>
+        <v>1026.62861871377</v>
       </c>
       <c r="I3" t="n">
-        <v>1026.628618713768</v>
+        <v>1026.62861871377</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26774,7 +26774,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1199.552402643433</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>439.8587220952005</v>
+        <v>439.8587220952006</v>
       </c>
       <c r="F3" t="n">
-        <v>209.026232401481</v>
+        <v>209.0262324014833</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.14808187953076</v>
+        <v>63.14808187952781</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2651298888773</v>
+        <v>525.2651298888775</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>669.2478007160526</v>
+        <v>669.2478007160528</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2651298888773</v>
+        <v>525.2651298888775</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2651298888773</v>
+        <v>525.2651298888775</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>125.6526099899942</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>195.598128412631</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923383</v>
@@ -27585,13 +27585,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>93.15421198631716</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>208.5530886438319</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>57.79873424902624</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>177.5947112612565</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>101.4594595710221</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>93.96027182110078</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>92.39587471087722</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>313.4165416895945</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>202.0397263505971</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,25 +31750,25 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.286843764069493</v>
+        <v>3.286843764069494</v>
       </c>
       <c r="H11" t="n">
-        <v>33.6613886987767</v>
+        <v>33.66138869877671</v>
       </c>
       <c r="I11" t="n">
         <v>126.7160442142893</v>
       </c>
       <c r="J11" t="n">
-        <v>278.9667559206934</v>
+        <v>278.9667559206935</v>
       </c>
       <c r="K11" t="n">
         <v>418.0988524537552</v>
       </c>
       <c r="L11" t="n">
-        <v>518.688597298397</v>
+        <v>518.6885972983971</v>
       </c>
       <c r="M11" t="n">
-        <v>577.1410050876678</v>
+        <v>577.141005087668</v>
       </c>
       <c r="N11" t="n">
         <v>586.4797499323304</v>
@@ -31786,10 +31786,10 @@
         <v>206.4671995947305</v>
       </c>
       <c r="S11" t="n">
-        <v>74.89895227373366</v>
+        <v>74.89895227373367</v>
       </c>
       <c r="T11" t="n">
-        <v>14.38815857721421</v>
+        <v>14.38815857721422</v>
       </c>
       <c r="U11" t="n">
         <v>0.2629475011255594</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.758616453577372</v>
+        <v>1.758616453577373</v>
       </c>
       <c r="H12" t="n">
         <v>16.98453259112884</v>
       </c>
       <c r="I12" t="n">
-        <v>60.54885596746655</v>
+        <v>60.54885596746656</v>
       </c>
       <c r="J12" t="n">
         <v>166.150688712764</v>
@@ -31847,16 +31847,16 @@
         <v>381.8434540980168</v>
       </c>
       <c r="M12" t="n">
-        <v>445.5933005401964</v>
+        <v>445.5933005401965</v>
       </c>
       <c r="N12" t="n">
         <v>457.3868293012483</v>
       </c>
       <c r="O12" t="n">
-        <v>418.4195910404022</v>
+        <v>418.4195910404023</v>
       </c>
       <c r="P12" t="n">
-        <v>335.8186103326826</v>
+        <v>335.8186103326827</v>
       </c>
       <c r="Q12" t="n">
         <v>224.4858476531397</v>
@@ -31865,10 +31865,10 @@
         <v>109.1884847229881</v>
       </c>
       <c r="S12" t="n">
-        <v>32.66552930219371</v>
+        <v>32.66552930219372</v>
       </c>
       <c r="T12" t="n">
-        <v>7.088458424726335</v>
+        <v>7.088458424726337</v>
       </c>
       <c r="U12" t="n">
         <v>0.1156984508932482</v>
@@ -31923,10 +31923,10 @@
         <v>171.2944015913283</v>
       </c>
       <c r="L13" t="n">
-        <v>219.1978594385433</v>
+        <v>219.1978594385434</v>
       </c>
       <c r="M13" t="n">
-        <v>231.1134089702092</v>
+        <v>231.1134089702093</v>
       </c>
       <c r="N13" t="n">
         <v>225.6180486687662</v>
@@ -31938,10 +31938,10 @@
         <v>178.3177401229289</v>
       </c>
       <c r="Q13" t="n">
-        <v>123.4579603331553</v>
+        <v>123.4579603331554</v>
       </c>
       <c r="R13" t="n">
-        <v>66.29280988033722</v>
+        <v>66.29280988033723</v>
       </c>
       <c r="S13" t="n">
         <v>25.69416023869924</v>
@@ -31950,7 +31950,7 @@
         <v>6.299559369947128</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08041990685038898</v>
+        <v>0.08041990685038899</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.127150225984994</v>
+        <v>4.127150225985003</v>
       </c>
       <c r="H14" t="n">
-        <v>42.26717725186883</v>
+        <v>42.26717725186893</v>
       </c>
       <c r="I14" t="n">
-        <v>159.1119590872866</v>
+        <v>159.111959087287</v>
       </c>
       <c r="J14" t="n">
-        <v>350.2867164926942</v>
+        <v>350.2867164926951</v>
       </c>
       <c r="K14" t="n">
-        <v>524.9889855586391</v>
+        <v>524.9889855586404</v>
       </c>
       <c r="L14" t="n">
-        <v>651.2952592871275</v>
+        <v>651.2952592871291</v>
       </c>
       <c r="M14" t="n">
-        <v>724.691467118488</v>
+        <v>724.6914671184899</v>
       </c>
       <c r="N14" t="n">
-        <v>736.417732698068</v>
+        <v>736.4177326980698</v>
       </c>
       <c r="O14" t="n">
-        <v>695.3783826384297</v>
+        <v>695.3783826384314</v>
       </c>
       <c r="P14" t="n">
-        <v>593.4893614344251</v>
+        <v>593.4893614344265</v>
       </c>
       <c r="Q14" t="n">
-        <v>445.6857939663373</v>
+        <v>445.6857939663384</v>
       </c>
       <c r="R14" t="n">
-        <v>259.2521003830301</v>
+        <v>259.2521003830307</v>
       </c>
       <c r="S14" t="n">
-        <v>94.04743577463314</v>
+        <v>94.04743577463337</v>
       </c>
       <c r="T14" t="n">
-        <v>18.06660011424932</v>
+        <v>18.06660011424936</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3301720180787994</v>
+        <v>0.3301720180788003</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.208220047799426</v>
+        <v>2.208220047799431</v>
       </c>
       <c r="H15" t="n">
-        <v>21.3267567774313</v>
+        <v>21.32675677743135</v>
       </c>
       <c r="I15" t="n">
-        <v>76.0286288387083</v>
+        <v>76.02862883870849</v>
       </c>
       <c r="J15" t="n">
-        <v>208.6283686388045</v>
+        <v>208.628368638805</v>
       </c>
       <c r="K15" t="n">
-        <v>356.5791118413661</v>
+        <v>356.5791118413669</v>
       </c>
       <c r="L15" t="n">
-        <v>479.4646204662744</v>
+        <v>479.4646204662756</v>
       </c>
       <c r="M15" t="n">
-        <v>559.5125971990035</v>
+        <v>559.5125971990049</v>
       </c>
       <c r="N15" t="n">
-        <v>574.3212307651672</v>
+        <v>574.3212307651687</v>
       </c>
       <c r="O15" t="n">
-        <v>525.3917233902431</v>
+        <v>525.3917233902445</v>
       </c>
       <c r="P15" t="n">
-        <v>421.6731773732079</v>
+        <v>421.6731773732089</v>
       </c>
       <c r="Q15" t="n">
-        <v>281.877352066467</v>
+        <v>281.8773520664677</v>
       </c>
       <c r="R15" t="n">
-        <v>137.1033464765293</v>
+        <v>137.1033464765296</v>
       </c>
       <c r="S15" t="n">
-        <v>41.01671887030948</v>
+        <v>41.01671887030957</v>
       </c>
       <c r="T15" t="n">
-        <v>8.900676420735401</v>
+        <v>8.900676420735422</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1452776347236465</v>
+        <v>0.1452776347236468</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.851297509155975</v>
+        <v>1.851297509155979</v>
       </c>
       <c r="H16" t="n">
-        <v>16.45971785413223</v>
+        <v>16.45971785413226</v>
       </c>
       <c r="I16" t="n">
-        <v>55.67356509352697</v>
+        <v>55.67356509352711</v>
       </c>
       <c r="J16" t="n">
-        <v>130.8867338973274</v>
+        <v>130.8867338973277</v>
       </c>
       <c r="K16" t="n">
-        <v>215.0871106092123</v>
+        <v>215.0871106092128</v>
       </c>
       <c r="L16" t="n">
-        <v>275.2374496794256</v>
+        <v>275.2374496794263</v>
       </c>
       <c r="M16" t="n">
-        <v>290.199299548877</v>
+        <v>290.1992995488777</v>
       </c>
       <c r="N16" t="n">
-        <v>283.2990088329323</v>
+        <v>283.2990088329329</v>
       </c>
       <c r="O16" t="n">
-        <v>261.6724879305191</v>
+        <v>261.6724879305198</v>
       </c>
       <c r="P16" t="n">
-        <v>223.9060187437371</v>
+        <v>223.9060187437376</v>
       </c>
       <c r="Q16" t="n">
-        <v>155.020921425779</v>
+        <v>155.0209214257793</v>
       </c>
       <c r="R16" t="n">
-        <v>83.241068002595</v>
+        <v>83.2410680025952</v>
       </c>
       <c r="S16" t="n">
-        <v>32.26306659138184</v>
+        <v>32.26306659138192</v>
       </c>
       <c r="T16" t="n">
-        <v>7.9100893573028</v>
+        <v>7.910089357302819</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1009798641357806</v>
+        <v>0.1009798641357808</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.127150225984992</v>
+        <v>4.127150225985003</v>
       </c>
       <c r="H17" t="n">
-        <v>42.26717725186881</v>
+        <v>42.26717725186893</v>
       </c>
       <c r="I17" t="n">
-        <v>159.1119590872866</v>
+        <v>159.111959087287</v>
       </c>
       <c r="J17" t="n">
-        <v>350.286716492694</v>
+        <v>350.2867164926951</v>
       </c>
       <c r="K17" t="n">
-        <v>524.9889855586389</v>
+        <v>524.9889855586404</v>
       </c>
       <c r="L17" t="n">
-        <v>651.2952592871272</v>
+        <v>651.2952592871291</v>
       </c>
       <c r="M17" t="n">
-        <v>724.6914671184877</v>
+        <v>724.6914671184899</v>
       </c>
       <c r="N17" t="n">
-        <v>736.4177326980677</v>
+        <v>736.4177326980698</v>
       </c>
       <c r="O17" t="n">
-        <v>695.3783826384293</v>
+        <v>695.3783826384314</v>
       </c>
       <c r="P17" t="n">
-        <v>593.4893614344248</v>
+        <v>593.4893614344265</v>
       </c>
       <c r="Q17" t="n">
-        <v>445.6857939663371</v>
+        <v>445.6857939663384</v>
       </c>
       <c r="R17" t="n">
-        <v>259.25210038303</v>
+        <v>259.2521003830307</v>
       </c>
       <c r="S17" t="n">
-        <v>94.0474357746331</v>
+        <v>94.04743577463337</v>
       </c>
       <c r="T17" t="n">
-        <v>18.06660011424931</v>
+        <v>18.06660011424936</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3301720180787993</v>
+        <v>0.3301720180788003</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.208220047799425</v>
+        <v>2.208220047799431</v>
       </c>
       <c r="H18" t="n">
-        <v>21.32675677743129</v>
+        <v>21.32675677743135</v>
       </c>
       <c r="I18" t="n">
-        <v>76.02862883870827</v>
+        <v>76.02862883870849</v>
       </c>
       <c r="J18" t="n">
-        <v>208.6283686388044</v>
+        <v>208.628368638805</v>
       </c>
       <c r="K18" t="n">
-        <v>356.5791118413659</v>
+        <v>356.5791118413669</v>
       </c>
       <c r="L18" t="n">
-        <v>479.4646204662742</v>
+        <v>479.4646204662756</v>
       </c>
       <c r="M18" t="n">
-        <v>559.5125971990033</v>
+        <v>559.5125971990049</v>
       </c>
       <c r="N18" t="n">
-        <v>574.321230765167</v>
+        <v>574.3212307651687</v>
       </c>
       <c r="O18" t="n">
-        <v>525.3917233902429</v>
+        <v>525.3917233902445</v>
       </c>
       <c r="P18" t="n">
-        <v>421.6731773732077</v>
+        <v>421.6731773732089</v>
       </c>
       <c r="Q18" t="n">
-        <v>281.8773520664669</v>
+        <v>281.8773520664677</v>
       </c>
       <c r="R18" t="n">
-        <v>137.1033464765292</v>
+        <v>137.1033464765296</v>
       </c>
       <c r="S18" t="n">
-        <v>41.01671887030946</v>
+        <v>41.01671887030957</v>
       </c>
       <c r="T18" t="n">
-        <v>8.900676420735397</v>
+        <v>8.900676420735422</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1452776347236464</v>
+        <v>0.1452776347236468</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.851297509155974</v>
+        <v>1.851297509155979</v>
       </c>
       <c r="H19" t="n">
-        <v>16.45971785413222</v>
+        <v>16.45971785413226</v>
       </c>
       <c r="I19" t="n">
-        <v>55.67356509352695</v>
+        <v>55.67356509352711</v>
       </c>
       <c r="J19" t="n">
-        <v>130.8867338973274</v>
+        <v>130.8867338973277</v>
       </c>
       <c r="K19" t="n">
-        <v>215.0871106092122</v>
+        <v>215.0871106092128</v>
       </c>
       <c r="L19" t="n">
-        <v>275.2374496794255</v>
+        <v>275.2374496794263</v>
       </c>
       <c r="M19" t="n">
-        <v>290.1992995488769</v>
+        <v>290.1992995488777</v>
       </c>
       <c r="N19" t="n">
-        <v>283.2990088329321</v>
+        <v>283.2990088329329</v>
       </c>
       <c r="O19" t="n">
-        <v>261.672487930519</v>
+        <v>261.6724879305198</v>
       </c>
       <c r="P19" t="n">
-        <v>223.906018743737</v>
+        <v>223.9060187437376</v>
       </c>
       <c r="Q19" t="n">
-        <v>155.0209214257789</v>
+        <v>155.0209214257793</v>
       </c>
       <c r="R19" t="n">
-        <v>83.24106800259496</v>
+        <v>83.2410680025952</v>
       </c>
       <c r="S19" t="n">
-        <v>32.26306659138183</v>
+        <v>32.26306659138192</v>
       </c>
       <c r="T19" t="n">
-        <v>7.910089357302796</v>
+        <v>7.910089357302819</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1009798641357805</v>
+        <v>0.1009798641357808</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.127150225984992</v>
+        <v>4.127150225985003</v>
       </c>
       <c r="H20" t="n">
-        <v>42.26717725186881</v>
+        <v>42.26717725186893</v>
       </c>
       <c r="I20" t="n">
-        <v>159.1119590872866</v>
+        <v>159.111959087287</v>
       </c>
       <c r="J20" t="n">
-        <v>350.286716492694</v>
+        <v>350.2867164926951</v>
       </c>
       <c r="K20" t="n">
-        <v>524.9889855586389</v>
+        <v>524.9889855586404</v>
       </c>
       <c r="L20" t="n">
-        <v>651.2952592871272</v>
+        <v>651.2952592871291</v>
       </c>
       <c r="M20" t="n">
-        <v>724.6914671184877</v>
+        <v>724.6914671184899</v>
       </c>
       <c r="N20" t="n">
-        <v>736.4177326980677</v>
+        <v>736.4177326980698</v>
       </c>
       <c r="O20" t="n">
-        <v>695.3783826384293</v>
+        <v>695.3783826384314</v>
       </c>
       <c r="P20" t="n">
-        <v>593.4893614344248</v>
+        <v>593.4893614344265</v>
       </c>
       <c r="Q20" t="n">
-        <v>445.6857939663371</v>
+        <v>445.6857939663384</v>
       </c>
       <c r="R20" t="n">
-        <v>259.25210038303</v>
+        <v>259.2521003830307</v>
       </c>
       <c r="S20" t="n">
-        <v>94.0474357746331</v>
+        <v>94.04743577463337</v>
       </c>
       <c r="T20" t="n">
-        <v>18.06660011424931</v>
+        <v>18.06660011424936</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3301720180787993</v>
+        <v>0.3301720180788003</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.208220047799425</v>
+        <v>2.208220047799431</v>
       </c>
       <c r="H21" t="n">
-        <v>21.32675677743129</v>
+        <v>21.32675677743135</v>
       </c>
       <c r="I21" t="n">
-        <v>76.02862883870827</v>
+        <v>76.02862883870849</v>
       </c>
       <c r="J21" t="n">
-        <v>208.6283686388044</v>
+        <v>208.628368638805</v>
       </c>
       <c r="K21" t="n">
-        <v>356.5791118413659</v>
+        <v>356.5791118413669</v>
       </c>
       <c r="L21" t="n">
-        <v>479.4646204662742</v>
+        <v>479.4646204662756</v>
       </c>
       <c r="M21" t="n">
-        <v>559.5125971990033</v>
+        <v>559.5125971990049</v>
       </c>
       <c r="N21" t="n">
-        <v>574.321230765167</v>
+        <v>574.3212307651687</v>
       </c>
       <c r="O21" t="n">
-        <v>525.3917233902429</v>
+        <v>525.3917233902445</v>
       </c>
       <c r="P21" t="n">
-        <v>421.6731773732077</v>
+        <v>421.6731773732089</v>
       </c>
       <c r="Q21" t="n">
-        <v>281.8773520664669</v>
+        <v>281.8773520664677</v>
       </c>
       <c r="R21" t="n">
-        <v>137.1033464765292</v>
+        <v>137.1033464765296</v>
       </c>
       <c r="S21" t="n">
-        <v>41.01671887030946</v>
+        <v>41.01671887030957</v>
       </c>
       <c r="T21" t="n">
-        <v>8.900676420735397</v>
+        <v>8.900676420735422</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1452776347236464</v>
+        <v>0.1452776347236468</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.851297509155974</v>
+        <v>1.851297509155979</v>
       </c>
       <c r="H22" t="n">
-        <v>16.45971785413222</v>
+        <v>16.45971785413226</v>
       </c>
       <c r="I22" t="n">
-        <v>55.67356509352695</v>
+        <v>55.67356509352711</v>
       </c>
       <c r="J22" t="n">
-        <v>130.8867338973274</v>
+        <v>130.8867338973277</v>
       </c>
       <c r="K22" t="n">
-        <v>215.0871106092122</v>
+        <v>215.0871106092128</v>
       </c>
       <c r="L22" t="n">
-        <v>275.2374496794255</v>
+        <v>275.2374496794263</v>
       </c>
       <c r="M22" t="n">
-        <v>290.1992995488769</v>
+        <v>290.1992995488777</v>
       </c>
       <c r="N22" t="n">
-        <v>283.2990088329321</v>
+        <v>283.2990088329329</v>
       </c>
       <c r="O22" t="n">
-        <v>261.672487930519</v>
+        <v>261.6724879305198</v>
       </c>
       <c r="P22" t="n">
-        <v>223.906018743737</v>
+        <v>223.9060187437376</v>
       </c>
       <c r="Q22" t="n">
-        <v>155.0209214257789</v>
+        <v>155.0209214257793</v>
       </c>
       <c r="R22" t="n">
-        <v>83.24106800259496</v>
+        <v>83.2410680025952</v>
       </c>
       <c r="S22" t="n">
-        <v>32.26306659138183</v>
+        <v>32.26306659138192</v>
       </c>
       <c r="T22" t="n">
-        <v>7.910089357302796</v>
+        <v>7.910089357302819</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1009798641357805</v>
+        <v>0.1009798641357808</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.127150225984992</v>
+        <v>4.127150225985003</v>
       </c>
       <c r="H23" t="n">
-        <v>42.26717725186881</v>
+        <v>42.26717725186893</v>
       </c>
       <c r="I23" t="n">
-        <v>159.1119590872866</v>
+        <v>159.111959087287</v>
       </c>
       <c r="J23" t="n">
-        <v>350.286716492694</v>
+        <v>350.2867164926951</v>
       </c>
       <c r="K23" t="n">
-        <v>524.9889855586389</v>
+        <v>524.9889855586404</v>
       </c>
       <c r="L23" t="n">
-        <v>651.2952592871272</v>
+        <v>651.2952592871291</v>
       </c>
       <c r="M23" t="n">
-        <v>724.6914671184877</v>
+        <v>724.6914671184899</v>
       </c>
       <c r="N23" t="n">
-        <v>736.4177326980677</v>
+        <v>736.4177326980698</v>
       </c>
       <c r="O23" t="n">
-        <v>695.3783826384293</v>
+        <v>695.3783826384314</v>
       </c>
       <c r="P23" t="n">
-        <v>593.4893614344248</v>
+        <v>593.4893614344265</v>
       </c>
       <c r="Q23" t="n">
-        <v>445.6857939663371</v>
+        <v>445.6857939663384</v>
       </c>
       <c r="R23" t="n">
-        <v>259.25210038303</v>
+        <v>259.2521003830307</v>
       </c>
       <c r="S23" t="n">
-        <v>94.0474357746331</v>
+        <v>94.04743577463337</v>
       </c>
       <c r="T23" t="n">
-        <v>18.06660011424931</v>
+        <v>18.06660011424936</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3301720180787993</v>
+        <v>0.3301720180788003</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.208220047799425</v>
+        <v>2.208220047799431</v>
       </c>
       <c r="H24" t="n">
-        <v>21.32675677743129</v>
+        <v>21.32675677743135</v>
       </c>
       <c r="I24" t="n">
-        <v>76.02862883870827</v>
+        <v>76.02862883870849</v>
       </c>
       <c r="J24" t="n">
-        <v>208.6283686388044</v>
+        <v>208.628368638805</v>
       </c>
       <c r="K24" t="n">
-        <v>356.5791118413659</v>
+        <v>356.5791118413669</v>
       </c>
       <c r="L24" t="n">
-        <v>479.4646204662742</v>
+        <v>479.4646204662756</v>
       </c>
       <c r="M24" t="n">
-        <v>559.5125971990033</v>
+        <v>559.5125971990049</v>
       </c>
       <c r="N24" t="n">
-        <v>574.321230765167</v>
+        <v>574.3212307651687</v>
       </c>
       <c r="O24" t="n">
-        <v>525.3917233902429</v>
+        <v>525.3917233902445</v>
       </c>
       <c r="P24" t="n">
-        <v>421.6731773732077</v>
+        <v>421.6731773732089</v>
       </c>
       <c r="Q24" t="n">
-        <v>281.8773520664669</v>
+        <v>281.8773520664677</v>
       </c>
       <c r="R24" t="n">
-        <v>137.1033464765292</v>
+        <v>137.1033464765296</v>
       </c>
       <c r="S24" t="n">
-        <v>41.01671887030946</v>
+        <v>41.01671887030957</v>
       </c>
       <c r="T24" t="n">
-        <v>8.900676420735397</v>
+        <v>8.900676420735422</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1452776347236464</v>
+        <v>0.1452776347236468</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.851297509155974</v>
+        <v>1.851297509155979</v>
       </c>
       <c r="H25" t="n">
-        <v>16.45971785413222</v>
+        <v>16.45971785413226</v>
       </c>
       <c r="I25" t="n">
-        <v>55.67356509352695</v>
+        <v>55.67356509352711</v>
       </c>
       <c r="J25" t="n">
-        <v>130.8867338973274</v>
+        <v>130.8867338973277</v>
       </c>
       <c r="K25" t="n">
-        <v>215.0871106092122</v>
+        <v>215.0871106092128</v>
       </c>
       <c r="L25" t="n">
-        <v>275.2374496794255</v>
+        <v>275.2374496794263</v>
       </c>
       <c r="M25" t="n">
-        <v>290.1992995488769</v>
+        <v>290.1992995488777</v>
       </c>
       <c r="N25" t="n">
-        <v>283.2990088329321</v>
+        <v>283.2990088329329</v>
       </c>
       <c r="O25" t="n">
-        <v>261.672487930519</v>
+        <v>261.6724879305198</v>
       </c>
       <c r="P25" t="n">
-        <v>223.906018743737</v>
+        <v>223.9060187437376</v>
       </c>
       <c r="Q25" t="n">
-        <v>155.0209214257789</v>
+        <v>155.0209214257793</v>
       </c>
       <c r="R25" t="n">
-        <v>83.24106800259496</v>
+        <v>83.2410680025952</v>
       </c>
       <c r="S25" t="n">
-        <v>32.26306659138183</v>
+        <v>32.26306659138192</v>
       </c>
       <c r="T25" t="n">
-        <v>7.910089357302796</v>
+        <v>7.910089357302819</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1009798641357805</v>
+        <v>0.1009798641357808</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34129,40 +34129,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34281,43 +34281,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245897</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,10 +35413,10 @@
         <v>522.1544139799394</v>
       </c>
       <c r="L11" t="n">
-        <v>700.5833968788602</v>
+        <v>700.5833968788603</v>
       </c>
       <c r="M11" t="n">
-        <v>796.3083053532276</v>
+        <v>796.3083053532278</v>
       </c>
       <c r="N11" t="n">
         <v>794.4136107477236</v>
@@ -35431,7 +35431,7 @@
         <v>344.951450312615</v>
       </c>
       <c r="R11" t="n">
-        <v>56.59808165358081</v>
+        <v>56.59808165358083</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>39.31306204609726</v>
+        <v>39.31306204609729</v>
       </c>
       <c r="K12" t="n">
         <v>146.1365521280889</v>
       </c>
       <c r="L12" t="n">
-        <v>614.1294196216018</v>
+        <v>243.2890743181426</v>
       </c>
       <c r="M12" t="n">
-        <v>303.4592666181781</v>
+        <v>757.4778088263128</v>
       </c>
       <c r="N12" t="n">
-        <v>678.4884007302949</v>
+        <v>805.3874915614686</v>
       </c>
       <c r="O12" t="n">
         <v>275.8233465959578</v>
@@ -35507,7 +35507,7 @@
         <v>201.8442029183524</v>
       </c>
       <c r="Q12" t="n">
-        <v>294.5813613029673</v>
+        <v>84.50407356711818</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>10.87842247923962</v>
+        <v>10.87842247923963</v>
       </c>
       <c r="K13" t="n">
-        <v>149.0249097654454</v>
+        <v>149.0249097654455</v>
       </c>
       <c r="L13" t="n">
         <v>246.7878846988595</v>
       </c>
       <c r="M13" t="n">
-        <v>270.6972859320498</v>
+        <v>270.6972859320499</v>
       </c>
       <c r="N13" t="n">
-        <v>269.7502210479947</v>
+        <v>269.7502210479948</v>
       </c>
       <c r="O13" t="n">
-        <v>232.9799131990141</v>
+        <v>232.9799131990142</v>
       </c>
       <c r="P13" t="n">
         <v>175.5962993878224</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.29591708146096</v>
+        <v>37.29591708146097</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.2408119660079</v>
+        <v>169.2408119660088</v>
       </c>
       <c r="K14" t="n">
-        <v>318.0018104070442</v>
+        <v>383.7182302800138</v>
       </c>
       <c r="L14" t="n">
-        <v>833.1900588675907</v>
+        <v>833.1900588675923</v>
       </c>
       <c r="M14" t="n">
-        <v>943.8587673840478</v>
+        <v>943.8587673840497</v>
       </c>
       <c r="N14" t="n">
-        <v>944.3515935134612</v>
+        <v>944.3515935134631</v>
       </c>
       <c r="O14" t="n">
-        <v>846.0803524794883</v>
+        <v>846.08035247949</v>
       </c>
       <c r="P14" t="n">
-        <v>362.2563656791555</v>
+        <v>362.256365679157</v>
       </c>
       <c r="Q14" t="n">
-        <v>223.3801040918878</v>
+        <v>223.3801040918889</v>
       </c>
       <c r="R14" t="n">
-        <v>109.3829824418804</v>
+        <v>43.6665625688986</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>207.8817773125467</v>
+        <v>81.79074197213833</v>
       </c>
       <c r="K15" t="n">
-        <v>218.7376728670071</v>
+        <v>218.7376728670079</v>
       </c>
       <c r="L15" t="n">
-        <v>340.9102406864002</v>
+        <v>340.9102406864014</v>
       </c>
       <c r="M15" t="n">
-        <v>417.3785632769852</v>
+        <v>625.8844689450202</v>
       </c>
       <c r="N15" t="n">
-        <v>525.3943890094688</v>
+        <v>442.9795186818354</v>
       </c>
       <c r="O15" t="n">
-        <v>382.7954789457987</v>
+        <v>382.7954789458</v>
       </c>
       <c r="P15" t="n">
-        <v>287.6987699588776</v>
+        <v>287.6987699588786</v>
       </c>
       <c r="Q15" t="n">
-        <v>141.8955779804455</v>
+        <v>141.8955779804462</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>37.52755378065464</v>
+        <v>37.52755378065496</v>
       </c>
       <c r="K16" t="n">
-        <v>192.8176187833295</v>
+        <v>192.81761878333</v>
       </c>
       <c r="L16" t="n">
-        <v>302.8274749397417</v>
+        <v>302.8274749397424</v>
       </c>
       <c r="M16" t="n">
-        <v>329.7831765107176</v>
+        <v>329.7831765107183</v>
       </c>
       <c r="N16" t="n">
-        <v>327.4311812121608</v>
+        <v>327.4311812121615</v>
       </c>
       <c r="O16" t="n">
-        <v>286.2576158445588</v>
+        <v>286.2576158445595</v>
       </c>
       <c r="P16" t="n">
-        <v>221.1845780086306</v>
+        <v>221.1845780086311</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.85887817408458</v>
+        <v>68.85887817408495</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>338.3374271380815</v>
+        <v>338.3374271380825</v>
       </c>
       <c r="K17" t="n">
-        <v>629.0445470848231</v>
+        <v>547.682664319836</v>
       </c>
       <c r="L17" t="n">
-        <v>705.7974660911689</v>
+        <v>415.5288443171418</v>
       </c>
       <c r="M17" t="n">
-        <v>494.345233891215</v>
+        <v>494.3452338912172</v>
       </c>
       <c r="N17" t="n">
-        <v>507.0046691014767</v>
+        <v>944.3515935134631</v>
       </c>
       <c r="O17" t="n">
-        <v>846.0803524794879</v>
+        <v>846.08035247949</v>
       </c>
       <c r="P17" t="n">
-        <v>684.0550738506379</v>
+        <v>684.0550738506397</v>
       </c>
       <c r="Q17" t="n">
-        <v>435.6950947517923</v>
+        <v>435.6950947517936</v>
       </c>
       <c r="R17" t="n">
-        <v>109.3829824418803</v>
+        <v>43.6665625688986</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>207.8817773125466</v>
+        <v>81.79074197213833</v>
       </c>
       <c r="K18" t="n">
-        <v>218.7376728670069</v>
+        <v>218.7376728670079</v>
       </c>
       <c r="L18" t="n">
-        <v>340.9102406864</v>
+        <v>340.9102406864014</v>
       </c>
       <c r="M18" t="n">
-        <v>417.3785632769849</v>
+        <v>417.3785632769865</v>
       </c>
       <c r="N18" t="n">
-        <v>442.9795186818337</v>
+        <v>442.9795186818354</v>
       </c>
       <c r="O18" t="n">
-        <v>382.7954789457984</v>
+        <v>382.7954789458</v>
       </c>
       <c r="P18" t="n">
-        <v>287.6987699588774</v>
+        <v>287.6987699588786</v>
       </c>
       <c r="Q18" t="n">
-        <v>224.3104483080818</v>
+        <v>350.40148364848</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>37.52755378065459</v>
+        <v>37.52755378065496</v>
       </c>
       <c r="K19" t="n">
-        <v>192.8176187833294</v>
+        <v>192.81761878333</v>
       </c>
       <c r="L19" t="n">
-        <v>302.8274749397416</v>
+        <v>302.8274749397424</v>
       </c>
       <c r="M19" t="n">
-        <v>329.7831765107175</v>
+        <v>329.7831765107183</v>
       </c>
       <c r="N19" t="n">
-        <v>327.4311812121607</v>
+        <v>327.4311812121615</v>
       </c>
       <c r="O19" t="n">
-        <v>286.2576158445587</v>
+        <v>286.2576158445595</v>
       </c>
       <c r="P19" t="n">
-        <v>221.1845780086305</v>
+        <v>221.1845780086311</v>
       </c>
       <c r="Q19" t="n">
-        <v>68.8588781740845</v>
+        <v>68.85887817408495</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.2408119660078</v>
+        <v>169.2408119660088</v>
       </c>
       <c r="K20" t="n">
-        <v>304.8991345136583</v>
+        <v>383.7182302800138</v>
       </c>
       <c r="L20" t="n">
-        <v>833.1900588675904</v>
+        <v>833.1900588675923</v>
       </c>
       <c r="M20" t="n">
-        <v>943.8587673840475</v>
+        <v>943.8587673840497</v>
       </c>
       <c r="N20" t="n">
-        <v>944.3515935134609</v>
+        <v>944.3515935134631</v>
       </c>
       <c r="O20" t="n">
-        <v>846.0803524794879</v>
+        <v>846.08035247949</v>
       </c>
       <c r="P20" t="n">
-        <v>362.2563656791553</v>
+        <v>362.256365679157</v>
       </c>
       <c r="Q20" t="n">
-        <v>236.4827799852756</v>
+        <v>223.3801040918889</v>
       </c>
       <c r="R20" t="n">
-        <v>109.3829824418803</v>
+        <v>43.6665625688986</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>207.8817773125466</v>
+        <v>81.79074197213833</v>
       </c>
       <c r="K21" t="n">
-        <v>218.7376728670069</v>
+        <v>427.2435785350416</v>
       </c>
       <c r="L21" t="n">
-        <v>340.9102406864</v>
+        <v>340.9102406864014</v>
       </c>
       <c r="M21" t="n">
-        <v>417.3785632769849</v>
+        <v>417.3785632769865</v>
       </c>
       <c r="N21" t="n">
-        <v>442.9795186818337</v>
+        <v>442.9795186818354</v>
       </c>
       <c r="O21" t="n">
-        <v>382.7954789457984</v>
+        <v>382.7954789458</v>
       </c>
       <c r="P21" t="n">
-        <v>287.6987699588774</v>
+        <v>287.6987699588786</v>
       </c>
       <c r="Q21" t="n">
-        <v>224.3104483080818</v>
+        <v>141.8955779804462</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>37.52755378065459</v>
+        <v>37.52755378065496</v>
       </c>
       <c r="K22" t="n">
-        <v>192.8176187833294</v>
+        <v>192.81761878333</v>
       </c>
       <c r="L22" t="n">
-        <v>302.8274749397416</v>
+        <v>302.8274749397424</v>
       </c>
       <c r="M22" t="n">
-        <v>329.7831765107175</v>
+        <v>329.7831765107183</v>
       </c>
       <c r="N22" t="n">
-        <v>327.4311812121607</v>
+        <v>327.4311812121615</v>
       </c>
       <c r="O22" t="n">
-        <v>286.2576158445587</v>
+        <v>286.2576158445595</v>
       </c>
       <c r="P22" t="n">
-        <v>221.1845780086305</v>
+        <v>221.1845780086311</v>
       </c>
       <c r="Q22" t="n">
-        <v>68.8588781740845</v>
+        <v>68.85887817408495</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>295.544999700214</v>
+        <v>169.2408119660088</v>
       </c>
       <c r="K23" t="n">
-        <v>629.0445470848231</v>
+        <v>629.0445470848246</v>
       </c>
       <c r="L23" t="n">
-        <v>833.1900588675904</v>
+        <v>833.1900588675923</v>
       </c>
       <c r="M23" t="n">
-        <v>943.8587673840475</v>
+        <v>943.8587673840497</v>
       </c>
       <c r="N23" t="n">
-        <v>507.0046691014767</v>
+        <v>944.3515935134631</v>
       </c>
       <c r="O23" t="n">
-        <v>846.0803524794879</v>
+        <v>600.7540356746782</v>
       </c>
       <c r="P23" t="n">
-        <v>362.2563656791553</v>
+        <v>362.256365679157</v>
       </c>
       <c r="Q23" t="n">
-        <v>223.3801040918876</v>
+        <v>223.3801040918889</v>
       </c>
       <c r="R23" t="n">
-        <v>109.3829824418803</v>
+        <v>43.6665625688986</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>207.8817773125466</v>
+        <v>81.79074197213833</v>
       </c>
       <c r="K24" t="n">
-        <v>218.7376728670069</v>
+        <v>427.2435785350416</v>
       </c>
       <c r="L24" t="n">
-        <v>340.9102406864</v>
+        <v>340.9102406864014</v>
       </c>
       <c r="M24" t="n">
-        <v>417.3785632769849</v>
+        <v>417.3785632769865</v>
       </c>
       <c r="N24" t="n">
-        <v>442.9795186818337</v>
+        <v>442.9795186818354</v>
       </c>
       <c r="O24" t="n">
-        <v>382.7954789457984</v>
+        <v>382.7954789458</v>
       </c>
       <c r="P24" t="n">
-        <v>287.6987699588774</v>
+        <v>287.6987699588786</v>
       </c>
       <c r="Q24" t="n">
-        <v>224.3104483080818</v>
+        <v>141.8955779804462</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>37.52755378065459</v>
+        <v>37.52755378065496</v>
       </c>
       <c r="K25" t="n">
-        <v>192.8176187833294</v>
+        <v>192.81761878333</v>
       </c>
       <c r="L25" t="n">
-        <v>302.8274749397416</v>
+        <v>302.8274749397424</v>
       </c>
       <c r="M25" t="n">
-        <v>329.7831765107175</v>
+        <v>329.7831765107183</v>
       </c>
       <c r="N25" t="n">
-        <v>327.4311812121607</v>
+        <v>327.4311812121615</v>
       </c>
       <c r="O25" t="n">
-        <v>286.2576158445587</v>
+        <v>286.2576158445595</v>
       </c>
       <c r="P25" t="n">
-        <v>221.1845780086305</v>
+        <v>221.1845780086311</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.8588781740845</v>
+        <v>68.85887817408495</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M29" t="n">
-        <v>854.0890375411587</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509645</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37546,7 +37546,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
@@ -37555,7 +37555,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M41" t="n">
-        <v>834.403327679625</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282419</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -37950,7 +37950,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P43" t="n">
         <v>281.932207763703</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>682.3589740116433</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
